--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A4A420-EB8A-48EA-A968-08E028401E18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC0E28-84DF-458D-82D3-3EE154B97587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="1665" windowWidth="21600" windowHeight="11295" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -778,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
